--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -4321,7 +4321,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>172</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>50</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>44</v>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-06T16:40:07+00:00</t>
+    <t>2021-09-07T22:17:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T22:17:02+00:00</t>
+    <t>2021-09-08T17:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-08T17:02:38+00:00</t>
+    <t>2021-09-08T17:47:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-08T17:47:26+00:00</t>
+    <t>2021-09-10T17:11:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4578" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4578" uniqueCount="583">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-10T17:11:50+00:00</t>
+    <t>2021-09-13T04:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1537,7 +1537,7 @@
     <t>Whether the item may repeat</t>
   </si>
   <si>
-    <t>An indication, if true, that the item may occur multiple times in the response, collecting multiple answers for questions or multiple sets of answers for groups.</t>
+    <t>An indication, if true, that a QuestionnaireResponse for this item may include multiple answers associated with a single instance of this item (for question-type items) or multiple repetitions of the item (for group-type items)</t>
   </si>
   <si>
     <t>If a question is marked as repeats=true, then multiple answers can be provided for the question in the corresponding QuestionnaireResponse.  When rendering the questionnaire, it is up to the rendering software whether to render the question text for each answer repetition (i.e. "repeat the question") or to simply allow entry/selection of multiple answers for the question (repeat the answers).  Which is most appropriate visually may depend on the type of answer as well as whether there are nested items.
@@ -1792,6 +1792,9 @@
   </si>
   <si>
     <t>Questionnaire.item.item.repeats</t>
+  </si>
+  <si>
+    <t>An indication, if true, that the item may occur multiple times in the response, collecting multiple answers for questions or multiple sets of answers for groups.</t>
   </si>
   <si>
     <t>Questionnaire.item.item.readOnly</t>
@@ -14734,7 +14737,7 @@
         <v>483</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>484</v>
+        <v>566</v>
       </c>
       <c r="M110" t="s" s="2">
         <v>485</v>
@@ -14823,7 +14826,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14939,7 +14942,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15053,7 +15056,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15076,7 +15079,7 @@
         <v>78</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="K113" t="s" s="2">
         <v>502</v>
@@ -15167,7 +15170,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15281,7 +15284,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15393,7 +15396,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15507,7 +15510,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15623,7 +15626,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15737,7 +15740,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15853,7 +15856,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15969,7 +15972,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16081,7 +16084,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16195,7 +16198,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16311,7 +16314,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16425,7 +16428,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T04:33:50+00:00</t>
+    <t>2021-09-13T18:22:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T18:22:00+00:00</t>
+    <t>2021-09-14T16:43:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T16:43:46+00:00</t>
+    <t>2021-09-14T17:14:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T17:14:13+00:00</t>
+    <t>2021-09-23T15:43:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -6566,7 +6566,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>335</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-23T15:43:05+00:00</t>
+    <t>2021-10-04T20:34:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T20:34:50+00:00</t>
+    <t>2021-10-04T21:05:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T21:05:20+00:00</t>
+    <t>2021-10-04T21:17:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T21:17:26+00:00</t>
+    <t>2021-10-06T12:30:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-06T12:30:04+00:00</t>
+    <t>2021-10-25T19:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1082,7 +1082,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-que-1:Group items must have nested items, display items cannot have nested items {(type='group' implies item.empty().not()) and (type.trace('type')='display' implies item.trace('item').empty())}que-3:Display items cannot have a "code" asserted {type!='display' or code.empty()}que-4:A question cannot have both answerOption and answerValueSet {answerOption.empty() or answerValueSet.empty()}que-5:Only 'choice' and 'open-choice' items can have answerValueSet {(type ='choice' or type = 'open-choice' or type = 'decimal' or type = 'integer' or type = 'date' or type = 'dateTime' or type = 'time' or type = 'string' or type = 'quantity') or (answerValueSet.empty() and answerOption.empty())}que-6:Required and repeat aren't permitted for display items {type!='display' or (required.empty() and repeats.empty())}que-8:Initial values can't be specified for groups or display items {(type!='group' and type!='display') or initial.empty()}que-9:Read-only can't be specified for "display" items {type!='display' or readOnly.empty()}que-10:Maximum length can only be declared for simple question types {(type in ('boolean' | 'decimal' | 'integer' | 'string' | 'text' | 'url' | 'open-choice')) or maxLength.empty()}que-11:If one or more answerOption is present, initial[x] must be missing {answerOption.empty() or initial.empty()}que-12:If there are more than one enableWhen, enableBehavior must be specified {enableWhen.count() &gt; 2 implies enableBehavior.exists()}que-13:Can only have multiple initial values for repeating items {repeats=true or initial.count() &lt;= 1}sdc-2:A choiceConstraint is only valid if item has a list of choice options (with an answerValueSet, answerExpression or at least one answerOption listed). {choiceConstraint.empty() or (answerValueSet.empty().not() or answerOption.empty().not() or extension('http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-answerExpression').empty().not)}sdc-1:An item cannot have an answerExpression if answerOption or answerValueSet is already present. {extension('http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-answerExpression').empty().not implies answerOption.empty() and answerValueSet.empty()}sdc-pop-1:An item cannot have both initial.value and initialExpression {initial.empty() or extension('http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-initialExpression').empty()}</t>
+que-1:Group items must have nested items, display items cannot have nested items {(type='group' implies item.empty().not()) and (type.trace('type')='display' implies item.trace('item').empty())}que-3:Display items cannot have a "code" asserted {type!='display' or code.empty()}que-4:A question cannot have both answerOption and answerValueSet {answerOption.empty() or answerValueSet.empty()}que-5:Only 'choice' and 'open-choice' items can have answerValueSet {(type ='choice' or type = 'open-choice' or type = 'decimal' or type = 'integer' or type = 'date' or type = 'dateTime' or type = 'time' or type = 'string' or type = 'quantity') or (answerValueSet.empty() and answerOption.empty())}que-6:Required and repeat aren't permitted for display items {type!='display' or (required.empty() and repeats.empty())}que-8:Initial values can't be specified for groups or display items {(type!='group' and type!='display') or initial.empty()}que-9:Read-only can't be specified for "display" items {type!='display' or readOnly.empty()}que-10:Maximum length can only be declared for simple question types {(type in ('boolean' | 'decimal' | 'integer' | 'string' | 'text' | 'url' | 'open-choice')) or maxLength.empty()}que-11:If one or more answerOption is present, initial[x] must be missing {answerOption.empty() or initial.empty()}que-12:If there are more than one enableWhen, enableBehavior must be specified {enableWhen.count() &gt; 2 implies enableBehavior.exists()}que-13:Can only have multiple initial values for repeating items {repeats=true or initial.count() &lt;= 1}sdc-2:A choiceConstraint is only valid if item has a list of choice options (with an answerValueSet, answerExpression or at least one answerOption listed). {choiceConstraint.empty() or (answerValueSet.empty().not() or answerOption.empty().not() or extension('http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-answerExpression').empty().not)}sdc-1:An item cannot have an answerExpression if answerOption or answerValueSet is already present. {extension('http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-answerExpression').empty().not() implies (answerOption.empty() and answerValueSet.empty())}sdc-pop-1:An item cannot have both initial.value and initialExpression {initial.empty() or extension('http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-initialExpression').empty()}</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=OBS, moodCode=DEF]</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-25T19:36:06+00:00</t>
+    <t>2021-10-25T20:35:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-25T20:35:22+00:00</t>
+    <t>2021-10-27T16:26:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-11T22:15:15+00:00</t>
+    <t>2021-11-11T22:17:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-11T22:17:18+00:00</t>
+    <t>2021-11-12T14:05:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T14:05:38+00:00</t>
+    <t>2021-11-12T14:18:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
